--- a/exp/KA6520_nube/exp_KA6520_652_importancia_001.xlsx
+++ b/exp/KA6520_nube/exp_KA6520_652_importancia_001.xlsx
@@ -1263,6 +1263,2514 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$393</c:f>
+              <c:strCache>
+                <c:ptCount val="392"/>
+                <c:pt idx="0">
+                  <c:v>ctrx_quarter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtarjeta_visa_consumo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mcuentas_saldo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcaja_ahorro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mcuenta_corriente</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mdescubierto_preacordado</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>foto_mes</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mpayroll</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ctarjeta_visa</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mprestamos_personales</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>cpayroll_trx</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mpasivos_margen</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>mdescubierto_preacordado_delta1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>cproductos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Master_fechaalta</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>numero_de_cliente</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>cliente_edad</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ctrx_quarter_delta1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mactivos_margen</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mrentabilidad_annual_delta1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Master_status</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mrentabilidad_annual</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>cliente_edad_lag1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Visa_status</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mcuenta_corriente_lag1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mprestamos_personales_delta1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Master_Fvencimiento</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Visa_Fvencimiento_lag1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Visa_Fvencimiento</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Visa_fechaalta</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>mrentabilidad</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Master_Fvencimiento_lag1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>mcuentas_saldo_delta1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Visa_fechaalta_lag1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>mcaja_ahorro_dolares_delta1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>mrentabilidad_annual_lag1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>chomebanking_trx</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>mcaja_ahorro_lag1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>ctarjeta_visa_trx</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>mactivos_margen_lag1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Master_fechaalta_lag1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>cproductos</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>ccaja_ahorro</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Visa_mpagominimo</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>mcaja_ahorro_delta1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>mcuenta_corriente_delta1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>mcomisiones_mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>mactivos_margen_delta1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Visa_mpagospesos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>mtransferencias_recibidas</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>cliente_antiguedad_lag1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>mrentabilidad_delta1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>cliente_antiguedad</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Visa_mfinanciacion_limite</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Visa_msaldototal</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Visa_mpagominimo_lag1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>mprestamos_personales_lag1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Visa_fultimo_cierre</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>ccomisiones_mantenimiento_delta1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>mcuentas_saldo_lag1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Master_mfinanciacion_limite</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>ctrx_quarter_lag1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>chomebanking_trx_delta1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>mcaja_ahorro_dolares_lag1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>chomebanking_trx_lag1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Visa_mpagospesos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>mtransferencias_recibidas_lag1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>mrentabilidad_lag1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Visa_cconsumos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Master_mfinanciacion_limite_lag1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Visa_Finiciomora</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>mtarjeta_visa_consumo_lag1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Visa_mpagospesos</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>mcomisiones_otras</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Master_fultimo_cierre</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>mcomisiones</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Visa_mconsumospesos</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>mpasivos_margen_delta1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Master_fultimo_cierre_lag1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Visa_mconsumospesos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>thomebanking</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>mcaja_ahorro_dolares</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>mcuenta_debitos_automaticos</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Visa_mfinanciacion_limite_lag1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>mpasivos_margen_lag1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Visa_mpagominimo_delta1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>mautoservicio</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>mtarjeta_visa_debitos_automaticos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>ccomisiones_otras</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Visa_cconsumos</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Visa_mlimitecompra_lag1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Visa_fultimo_cierre_lag1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>ccomisiones_mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>cmobile_app_trx</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>mtransferencias_emitidas</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Visa_mconsumospesos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>mcomisiones_otras_lag1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Visa_mconsumosdolares_lag1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>tcallcenter</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Master_mlimitecompra</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>Visa_msaldopesos</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>mcomisiones_lag1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>Visa_mlimitecompra</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>mtransferencias_emitidas_lag1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>ccomisiones_otras_lag1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>mtransferencias_emitidas_delta1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>mcomisiones_mantenimiento_lag1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>Master_mlimitecompra_lag1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>mtransferencias_recibidas_delta1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>mpayroll_lag1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>cprestamos_personales</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>Visa_Finiciomora_lag1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>mtarjeta_visa_debitos_automaticos</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>mpayroll_delta1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>mpagomiscuentas</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>ctransferencias_recibidas</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>cmobile_app_trx_lag1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>Visa_msaldototal_lag1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>mtarjeta_visa_debitos_automaticos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>Visa_msaldopesos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>ccallcenter_trx</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>Visa_msaldototal_delta1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>ctransferencias_recibidas_lag1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>ccaja_ahorro_delta1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>mcomisiones_delta1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>cproductos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>Visa_msaldopesos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>ccallcenter_trx_delta1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>Visa_mconsumosdolares</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>mcomisiones_otras_delta1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>ctarjeta_visa_trx_lag1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>Visa_cconsumos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>internet</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>Master_mpagominimo_lag1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>Master_mpagospesos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>cmobile_app_trx_delta1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>ctarjeta_debito</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>mtarjeta_master_consumo</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>mautoservicio_lag1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>mpagomiscuentas_lag1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>ccaja_seguridad_lag1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>Master_fultimo_cierre_delta1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>ctarjeta_visa_debitos_automaticos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>Master_mpagominimo</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>Visa_mconsumosdolares_delta1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>Master_msaldopesos</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>ccomisiones_otras_delta1</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>mautoservicio_delta1</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>ctarjeta_debito_lag1</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>mtarjeta_visa_consumo_delta1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>Visa_fultimo_cierre_delta1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>ctransferencias_emitidas</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>ccaja_seguridad</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>ctarjeta_master</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>Master_mpagospesos</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>ctarjeta_debito_trx_lag1</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>mcuenta_debitos_automaticos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>ctransferencias_emitidas_lag1</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>Master_status_lag1</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>mcomisiones_mantenimiento_delta1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>cplazo_fijo</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>ctarjeta_visa_trx_delta1</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>ctarjeta_debito_trx</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>Master_mpagospesos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>internet_lag1</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>ctarjeta_debito_trx_delta1</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>Visa_mpagado</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>ctarjeta_visa_debitos_automaticos</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>Master_msaldototal</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>Master_mconsumospesos</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>ctransferencias_emitidas_delta1</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>ctransferencias_recibidas_delta1</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>mdescubierto_preacordado_lag1</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>mextraccion_autoservicio_lag1</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>Master_msaldototal_lag1</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>Master_mconsumospesos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>cprestamos_personales_delta1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>ccuenta_debitos_automaticos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>Master_msaldopesos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>ccajas_consultas_delta1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>mextraccion_autoservicio</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>mprestamos_prendarios</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>cpayroll_trx_lag1</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>thomebanking_lag1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>ccuenta_debitos_automaticos</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>Master_mpagominimo_delta1</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>ctarjeta_visa_debitos_automaticos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>mcuenta_debitos_automaticos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>mextraccion_autoservicio_delta1</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>mtarjeta_master_consumo_lag1</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>cextraccion_autoservicio_lag1</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>cpagomiscuentas_lag1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>matm_lag1</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>ccomisiones_mantenimiento_lag1</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>ccaja_ahorro_lag1</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>cpagomiscuentas</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>mpagomiscuentas_delta1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>mplazo_fijo_dolares</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>ccajas_trx_delta1</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>Master_mfinanciacion_limite_delta1</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>ccajas_otras_delta1</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>cextraccion_autoservicio</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>mplazo_fijo_dolares_delta1</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>matm</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>Master_msaldototal_delta1</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>Master_mconsumospesos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>tmobile_app</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>Master_cconsumos</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>Master_msaldopesos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>catm_trx_lag1</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>Visa_status_delta1</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>ccallcenter_trx_lag1</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>Master_Fvencimiento_delta1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>Visa_mpagado_delta1</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>Visa_msaldodolares_lag1</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>Visa_mpagosdolares</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>cprestamos_personales_lag1</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>matm_delta1</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>mttarjeta_master_debitos_automaticos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>Master_cconsumos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>Master_mlimitecompra_delta1</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>Visa_mpagosdolares_lag1</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>thomebanking_delta1</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>Visa_msaldodolares_delta1</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>Visa_mlimitecompra_delta1</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>tpaquete7</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>mcaja_ahorro_adicional_lag1</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>mttarjeta_master_debitos_automaticos</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>Visa_mconsumototal_lag1</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>tcallcenter_lag1</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>Master_cconsumos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>ctarjeta_master_lag1</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>ctarjeta_master_trx</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>catm_trx</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>mcaja_ahorro_adicional</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>Visa_mfinanciacion_limite_delta1</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>mforex_sell_lag1</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>Visa_mpagado_lag1</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>tcuentas_lag1</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>Visa_Fvencimiento_delta1</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>ctarjeta_visa_delta1</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>cpagomiscuentas_delta1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>matm_other_lag1</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>cextraccion_autoservicio_delta1</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>minversion1_pesos</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>Visa_status_lag1</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>Visa_msaldodolares</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>mtarjeta_master_consumo_delta1</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>ccajas_extracciones</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>mforex_sell</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>Visa_mconsumototal</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>cseguro_accidentes_personales_lag1</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>tcallcenter_delta1</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>tmobile_app_lag1</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>mplazo_fijo_dolares_lag1</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>Master_Finiciomora</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>cseguro_accidentes_personales</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>matm_other_delta1</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>Master_fechaalta_delta1</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>matm_other</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>mttarjeta_master_debitos_automaticos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>ccuenta_debitos_automaticos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>ctarjeta_master_trx_lag1</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>Visa_fechaalta_delta1</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>Visa_mconsumototal_delta1</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>cseguro_vivienda</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>mprestamos_hipotecarios</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>Visa_delinquency</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>Master_mconsumosdolares_lag1</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>minversion2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>Visa_mpagosdolares_delta1</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>active_quarter_lag1</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>ccajas_otras</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>Master_delinquency_lag1</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>catm_trx_delta1</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>minversion2_lag1</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>mforex_sell_delta1</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>ccajas_trx_lag1</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>ctarjeta_debito_delta1</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>ctarjeta_master_trx_delta1</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>Master_mconsumosdolares</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>Master_delinquency</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>ccajas_consultas</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>ccheques_depositados_delta1</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>cforex_buy_delta1</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>cseguro_vida_lag1</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>tpaquete9_lag1</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>catm_trx_other</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>Master_mconsumosdolares_delta1</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>mcaja_ahorro_adicional_delta1</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>tpaquete9</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>mcheques_emitidos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>Master_mpagado</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>tmobile_app_delta1</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>internet_delta1</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>minversion1_pesos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>Master_msaldodolares_lag1</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>mcheques_depositados_delta1</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>active_quarter</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>Master_mconsumototal_delta1</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>cpayroll_trx_delta1</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>Master_mpagado_lag1</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>mcheques_depositados</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>ctarjeta_master_debitos_automaticos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>cseguro_vivienda_lag1</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>ccajas_trx</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>cliente_edad_delta1</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>ccajas_extracciones_delta1</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>cprestamos_hipotecarios</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>ctarjeta_master_debitos_automaticos</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>Master_msaldodolares</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>ccajas_depositos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>ccajas_extracciones_lag1</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>cseguro_vida</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>cforex_sell_lag1</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>Master_mpagado_delta1</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>catm_trx_other_delta1</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>mprestamos_hipotecarios_lag1</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>minversion1_pesos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>catm_trx_other_lag1</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>mprestamos_hipotecarios_delta1</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>mtarjeta_visa_descuentos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>mforex_buy_delta1</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>cforex_buy</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>ccheques_emitidos</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>ccheques_emitidos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>mtarjeta_visa_descuentos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>ctarjeta_visa_lag1</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>cforex_lag1</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>Master_mpagosdolares</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>ccajas_depositos</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>Master_mconsumototal</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>ccajas_consultas_lag1</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>mprestamos_prendarios_lag1</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>Master_msaldodolares_delta1</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>Master_mpagosdolares_lag1</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>Visa_delinquency_lag1</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>cforex</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>Master_mconsumototal_lag1</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>cforex_sell</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>tpaquete7_lag1</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>mprestamos_prendarios_delta1</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>cprestamos_hipotecarios_lag1</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>cforex_sell_delta1</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>ctarjeta_visa_descuentos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>cinversion2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>ccheques_depositados_lag1</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>mcheques_depositados_lag1</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>Master_mpagosdolares_delta1</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>Master_status_delta1</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>mcheques_emitidos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>ccajas_otras_lag1</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>cplazo_fijo_lag1</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>ccheques_emitidos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>tpaquete7_delta1</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>cforex_delta1</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>mtarjeta_master_descuentos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>ctarjeta_master_debitos_automaticos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>minversion2_delta1</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>Master_delinquency_delta1</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>cinversion1_lag1</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>mtarjeta_master_descuentos</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>ctarjeta_visa_descuentos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>mtarjeta_visa_descuentos</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>ccheques_depositados</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>cpagodeservicios_lag1</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>mforex_buy</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>mcheques_emitidos_rechazados_lag1</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>cseguro_auto_lag1</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>mcheques_emitidos</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>Master_madelantopesos_lag1</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>ccajas_depositos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>Visa_delinquency_delta1</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>cinversion2_lag1</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>tcuentas</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>mtarjeta_master_descuentos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>Master_madelantopesos</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>Master_cadelantosefectivo_lag1</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>active_quarter_delta1</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>Master_cadelantosefectivo_delta1</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>ctarjeta_master_descuentos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>cprestamos_prendarios_lag1</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>cseguro_auto</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>Visa_madelantopesos</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>Master_cadelantosefectivo</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>Visa_cadelantosefectivo_lag1</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>ctarjeta_visa_descuentos</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>cpagodeservicios_delta1</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>mcajeros_propios_descuentos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>mpagodeservicios_delta1</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>Visa_madelantopesos_delta1</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>Master_madelantopesos_delta1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$393</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="392"/>
+                <c:pt idx="0">
+                  <c:v>0.20842264769489199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7402136099890598E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5417473696820599E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2865417074407897E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.56851594933739E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2943259462331701E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.90422334529197E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.85416030400502E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6012948066060399E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5986528648947899E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5783102892597701E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.20210589964356E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0060945150170499E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.9358424375511197E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5839798905484495E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4300132885364396E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4221144251879192E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3064836298880496E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.0729144440784602E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.9952253050241204E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9220092785130206E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8847711010625599E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6464387660520102E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0600782459103902E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4945779829049203E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.4429738761437602E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1567818008617398E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0889491571017099E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.08079571397197E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8270154431476796E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.7520276126574099E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.7128928199037003E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.6395526692495299E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.6142132906741799E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5778044505463203E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.47844426093192E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.2753961657697104E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.1236128752948501E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0343717527251896E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.85053228871829E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8203747607976598E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6850093621207999E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6693514055363696E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.6095326327851103E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6011956033473302E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5669697370470897E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5476836626113298E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3952417450048098E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.3481316869298002E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.3207541639127996E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.2760603663054798E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.20390538984791E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.1789654694059496E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.1601135976269098E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.1498403262118302E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.0447101083166499E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.9612487366117704E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.9565269536198299E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.7961801627016201E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7949008348549299E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.7385498727728699E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.7336431345055101E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.62361116836826E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.4977231661945198E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.4868157835765599E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.4651661903704902E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4619740847853602E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.4571338318822001E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.28140135471627E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.2101717352090598E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.1559260259592702E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1365808120026998E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.0873621188828898E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.04129439058998E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0303656403431502E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.0019226266870501E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.94373888555415E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.86456753405534E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8281395914148701E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.8038080628155801E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.7963570439801899E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.7509846161052798E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.7389551819935101E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.7288360348558301E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.7060715341320801E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.6768173444313499E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.5922462668430202E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.5660191809246001E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.4390733306322901E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.4335781855574601E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.43006821693672E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.4110806324491802E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.4043707939407901E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.3380326018345898E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.3261512853094599E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.3221316552764601E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.3195585742979401E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.30450590803624E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.2478826188442199E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.21165292496352E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.2056517630459301E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.1717124450383002E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.1647562749792602E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.14094596336714E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.1277058961005199E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.0638044469043098E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.05564148339456E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.0115072335058302E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.9719261648497299E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.9566761564088699E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.9500619250823301E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.9051196239899099E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.8901763421255401E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.8191155539715499E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.7704649513245799E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.76686182616076E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.7656024979211299E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.75512553699476E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.7433687711224299E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.73661000382422E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.72987198231165E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.7228639425181701E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.71291981256976E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.7123859213858999E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.6636291777053099E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.6580080534618501E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.6463612217003101E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.5925574702902101E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.58360466574334E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.5685343786775901E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.54610559098609E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.4677193522309299E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.4553720168784499E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.42091812391278E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.4205983717197901E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.34655091653235E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.3266686001975601E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.32510843014982E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.31620307585472E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.30884706050022E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.2714931274087999E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.2694492636265999E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.26572819811863E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.2472579929993901E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.23498688474145E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.16291537513985E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.14820661990127E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.14039590915532E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.1331915276898701E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.13034036074402E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.1047540599286301E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.10175758362215E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.0967949309111001E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.06280141710259E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.04614150414947E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.03631346320023E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.0248298595345799E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.00495237463262E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.00032423012487E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>9.9525758483439189E-4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9.5150134101951395E-4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9.3531385364811997E-4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9.1579234643707598E-4</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>9.0072976410729996E-4</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8.9150819278489303E-4</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8.8497728694707299E-4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8.6554527487338903E-4</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.6024459301971799E-4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.2930356558923504E-4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8.0985524790931098E-4</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7.5498586223755198E-4</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.4500797471154195E-4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7.4099148526029699E-4</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7.0938054581299703E-4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.0774630094880601E-4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7.0330929194921496E-4</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6.9952560543444498E-4</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.9479517461100199E-4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6.8360921248976402E-4</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.7576980463136805E-4</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6.68583264156397E-4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.5398372542269502E-4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.5256530688010805E-4</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6.3929175307532004E-4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.3675001992841195E-4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.2826225317740199E-4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.1749291196846697E-4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.0721645859424596E-4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.0536857460251499E-4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5.9910392452652101E-4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5.9887425023860403E-4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.7216648230202702E-4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.6892225789270602E-4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5.6521707747289704E-4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.6338540056569196E-4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5.5614157003524602E-4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.51963541488116E-4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5.4538909039509697E-4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.2939836110612898E-4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.1481704141599605E-4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5.0806175895938403E-4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4.90201078393631E-4</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.8237594755130001E-4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4.6917870621886198E-4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.63300284938633E-4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.6082152518082302E-4</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.6031509528550099E-4</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.6011879966300902E-4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.32396156615261E-4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.3227139882749303E-4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.2733478338319102E-4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.2686517490553001E-4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.2378347178522201E-4</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.21100068361607E-4</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.01960417054729E-4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.9744623472107897E-4</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.7501829992632999E-4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.6548616897602202E-4</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.6226640546498101E-4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.6077572251131898E-4</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.58036036966751E-4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.55641944594333E-4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.51428057062755E-4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.47016036580902E-4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3.46456970430954E-4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.43372585089142E-4</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.3527742271333301E-4</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3.31626715098478E-4</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3.28961229830756E-4</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3.2274117906617002E-4</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3.2197361989470098E-4</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.1648449189872001E-4</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3.1537504992487999E-4</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3.04294321476445E-4</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3.0157525007692201E-4</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3.0156351875368798E-4</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.98520086864547E-4</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.8897814130303601E-4</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.8467505547835202E-4</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.7253318365483699E-4</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.72325755140928E-4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.6323948289922399E-4</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.6157546961089298E-4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.5734381356531602E-4</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.5159219626974999E-4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.5026181879839198E-4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.4673728034259502E-4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.43858225516954E-4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.4243398742544001E-4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.29908652668529E-4</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.26432205152166E-4</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.2354619329330999E-4</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2.1952108116436399E-4</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.18442438445194E-4</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.1639775527825501E-4</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.15812264792731E-4</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.1303001214675399E-4</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.11488504758194E-4</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.09128957672182E-4</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.0702471332630299E-4</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.01938520921451E-4</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.0154725766340399E-4</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.01515276948113E-4</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.9865881573173701E-4</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.9405723668466701E-4</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.8713199296737301E-4</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.84435151689674E-4</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.7740463295445999E-4</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.75353049604846E-4</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.7498854319178899E-4</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.6988409079854899E-4</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.6875607152466501E-4</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.67781188244268E-4</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.65229040947735E-4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.6518367187549299E-4</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.6448441324866601E-4</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.63245170314385E-4</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.62240290907138E-4</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.4803906324183899E-4</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.44989612751941E-4</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.4366255856502E-4</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.40890907978032E-4</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.4059798449476101E-4</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.3683181046709E-4</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.36721034477902E-4</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.3662744126637701E-4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.3507608479056E-4</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.3067364068321101E-4</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.2546427806752199E-4</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.1864275072385899E-4</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.17778353864595E-4</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.16711573373942E-4</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.1431966810466E-4</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.10446216471916E-4</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.0575670196645801E-4</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.0546964197645E-4</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.0195615222439999E-4</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.01298487249462E-4</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.01005492329294E-4</c:v>
+                </c:pt>
+                <c:pt idx="299" formatCode="0.00E+00">
+                  <c:v>9.8455816658197601E-5</c:v>
+                </c:pt>
+                <c:pt idx="300" formatCode="0.00E+00">
+                  <c:v>9.8219746599472501E-5</c:v>
+                </c:pt>
+                <c:pt idx="301" formatCode="0.00E+00">
+                  <c:v>9.6562746225054095E-5</c:v>
+                </c:pt>
+                <c:pt idx="302" formatCode="0.00E+00">
+                  <c:v>9.6421106977711903E-5</c:v>
+                </c:pt>
+                <c:pt idx="303" formatCode="0.00E+00">
+                  <c:v>9.5305318146627596E-5</c:v>
+                </c:pt>
+                <c:pt idx="304" formatCode="0.00E+00">
+                  <c:v>9.5077827734375993E-5</c:v>
+                </c:pt>
+                <c:pt idx="305" formatCode="0.00E+00">
+                  <c:v>9.4820541699843595E-5</c:v>
+                </c:pt>
+                <c:pt idx="306" formatCode="0.00E+00">
+                  <c:v>9.4556535974549499E-5</c:v>
+                </c:pt>
+                <c:pt idx="307" formatCode="0.00E+00">
+                  <c:v>9.2872597137933706E-5</c:v>
+                </c:pt>
+                <c:pt idx="308" formatCode="0.00E+00">
+                  <c:v>8.8523745443221805E-5</c:v>
+                </c:pt>
+                <c:pt idx="309" formatCode="0.00E+00">
+                  <c:v>8.2341538635154305E-5</c:v>
+                </c:pt>
+                <c:pt idx="310" formatCode="0.00E+00">
+                  <c:v>8.0038765561356098E-5</c:v>
+                </c:pt>
+                <c:pt idx="311" formatCode="0.00E+00">
+                  <c:v>7.9131349087932794E-5</c:v>
+                </c:pt>
+                <c:pt idx="312" formatCode="0.00E+00">
+                  <c:v>7.2929463292618698E-5</c:v>
+                </c:pt>
+                <c:pt idx="313" formatCode="0.00E+00">
+                  <c:v>7.1636438911643294E-5</c:v>
+                </c:pt>
+                <c:pt idx="314" formatCode="0.00E+00">
+                  <c:v>7.1148133045117001E-5</c:v>
+                </c:pt>
+                <c:pt idx="315" formatCode="0.00E+00">
+                  <c:v>6.9151807513726502E-5</c:v>
+                </c:pt>
+                <c:pt idx="316" formatCode="0.00E+00">
+                  <c:v>6.8247071491851405E-5</c:v>
+                </c:pt>
+                <c:pt idx="317" formatCode="0.00E+00">
+                  <c:v>6.5993553708542304E-5</c:v>
+                </c:pt>
+                <c:pt idx="318" formatCode="0.00E+00">
+                  <c:v>6.4896180390994104E-5</c:v>
+                </c:pt>
+                <c:pt idx="319" formatCode="0.00E+00">
+                  <c:v>6.0581553898258702E-5</c:v>
+                </c:pt>
+                <c:pt idx="320" formatCode="0.00E+00">
+                  <c:v>5.9530994367281401E-5</c:v>
+                </c:pt>
+                <c:pt idx="321" formatCode="0.00E+00">
+                  <c:v>5.7855826117159002E-5</c:v>
+                </c:pt>
+                <c:pt idx="322" formatCode="0.00E+00">
+                  <c:v>5.6818202887492102E-5</c:v>
+                </c:pt>
+                <c:pt idx="323" formatCode="0.00E+00">
+                  <c:v>5.5869776654897698E-5</c:v>
+                </c:pt>
+                <c:pt idx="324" formatCode="0.00E+00">
+                  <c:v>5.3090078195696901E-5</c:v>
+                </c:pt>
+                <c:pt idx="325" formatCode="0.00E+00">
+                  <c:v>5.24712122232545E-5</c:v>
+                </c:pt>
+                <c:pt idx="326" formatCode="0.00E+00">
+                  <c:v>5.2026253357514797E-5</c:v>
+                </c:pt>
+                <c:pt idx="327" formatCode="0.00E+00">
+                  <c:v>4.94259501851365E-5</c:v>
+                </c:pt>
+                <c:pt idx="328" formatCode="0.00E+00">
+                  <c:v>4.92764251618565E-5</c:v>
+                </c:pt>
+                <c:pt idx="329" formatCode="0.00E+00">
+                  <c:v>4.8308553352644399E-5</c:v>
+                </c:pt>
+                <c:pt idx="330" formatCode="0.00E+00">
+                  <c:v>4.6141802940837101E-5</c:v>
+                </c:pt>
+                <c:pt idx="331" formatCode="0.00E+00">
+                  <c:v>4.5701958341312599E-5</c:v>
+                </c:pt>
+                <c:pt idx="332" formatCode="0.00E+00">
+                  <c:v>4.4809362815236802E-5</c:v>
+                </c:pt>
+                <c:pt idx="333" formatCode="0.00E+00">
+                  <c:v>4.4798327515112999E-5</c:v>
+                </c:pt>
+                <c:pt idx="334" formatCode="0.00E+00">
+                  <c:v>4.4009889564374702E-5</c:v>
+                </c:pt>
+                <c:pt idx="335" formatCode="0.00E+00">
+                  <c:v>4.2790715632151799E-5</c:v>
+                </c:pt>
+                <c:pt idx="336" formatCode="0.00E+00">
+                  <c:v>4.0062132583222799E-5</c:v>
+                </c:pt>
+                <c:pt idx="337" formatCode="0.00E+00">
+                  <c:v>3.90260931181636E-5</c:v>
+                </c:pt>
+                <c:pt idx="338" formatCode="0.00E+00">
+                  <c:v>3.8556044343147299E-5</c:v>
+                </c:pt>
+                <c:pt idx="339" formatCode="0.00E+00">
+                  <c:v>3.5150082898958599E-5</c:v>
+                </c:pt>
+                <c:pt idx="340" formatCode="0.00E+00">
+                  <c:v>3.4770749774321901E-5</c:v>
+                </c:pt>
+                <c:pt idx="341" formatCode="0.00E+00">
+                  <c:v>3.1548436894041903E-5</c:v>
+                </c:pt>
+                <c:pt idx="342" formatCode="0.00E+00">
+                  <c:v>2.87620650677039E-5</c:v>
+                </c:pt>
+                <c:pt idx="343" formatCode="0.00E+00">
+                  <c:v>2.7240237460575099E-5</c:v>
+                </c:pt>
+                <c:pt idx="344" formatCode="0.00E+00">
+                  <c:v>2.66596705497187E-5</c:v>
+                </c:pt>
+                <c:pt idx="345" formatCode="0.00E+00">
+                  <c:v>2.607848817548E-5</c:v>
+                </c:pt>
+                <c:pt idx="346" formatCode="0.00E+00">
+                  <c:v>2.5656197213582199E-5</c:v>
+                </c:pt>
+                <c:pt idx="347" formatCode="0.00E+00">
+                  <c:v>2.39176856420667E-5</c:v>
+                </c:pt>
+                <c:pt idx="348" formatCode="0.00E+00">
+                  <c:v>2.25905220779624E-5</c:v>
+                </c:pt>
+                <c:pt idx="349" formatCode="0.00E+00">
+                  <c:v>2.15702677432011E-5</c:v>
+                </c:pt>
+                <c:pt idx="350" formatCode="0.00E+00">
+                  <c:v>2.0790416077038599E-5</c:v>
+                </c:pt>
+                <c:pt idx="351" formatCode="0.00E+00">
+                  <c:v>2.0691388302779202E-5</c:v>
+                </c:pt>
+                <c:pt idx="352" formatCode="0.00E+00">
+                  <c:v>2.0571943155983099E-5</c:v>
+                </c:pt>
+                <c:pt idx="353" formatCode="0.00E+00">
+                  <c:v>2.01756945666791E-5</c:v>
+                </c:pt>
+                <c:pt idx="354" formatCode="0.00E+00">
+                  <c:v>1.9176171224883099E-5</c:v>
+                </c:pt>
+                <c:pt idx="355" formatCode="0.00E+00">
+                  <c:v>1.7838203753886401E-5</c:v>
+                </c:pt>
+                <c:pt idx="356" formatCode="0.00E+00">
+                  <c:v>1.7731878172263901E-5</c:v>
+                </c:pt>
+                <c:pt idx="357" formatCode="0.00E+00">
+                  <c:v>1.7482118793278501E-5</c:v>
+                </c:pt>
+                <c:pt idx="358" formatCode="0.00E+00">
+                  <c:v>1.47221151222378E-5</c:v>
+                </c:pt>
+                <c:pt idx="359" formatCode="0.00E+00">
+                  <c:v>1.35776047658774E-5</c:v>
+                </c:pt>
+                <c:pt idx="360" formatCode="0.00E+00">
+                  <c:v>1.32047935241438E-5</c:v>
+                </c:pt>
+                <c:pt idx="361" formatCode="0.00E+00">
+                  <c:v>1.30612266828612E-5</c:v>
+                </c:pt>
+                <c:pt idx="362" formatCode="0.00E+00">
+                  <c:v>1.25336252554599E-5</c:v>
+                </c:pt>
+                <c:pt idx="363" formatCode="0.00E+00">
+                  <c:v>1.1655104159230201E-5</c:v>
+                </c:pt>
+                <c:pt idx="364" formatCode="0.00E+00">
+                  <c:v>1.1175476099868701E-5</c:v>
+                </c:pt>
+                <c:pt idx="365" formatCode="0.00E+00">
+                  <c:v>1.0968783637097901E-5</c:v>
+                </c:pt>
+                <c:pt idx="366" formatCode="0.00E+00">
+                  <c:v>1.04555062291066E-5</c:v>
+                </c:pt>
+                <c:pt idx="367" formatCode="0.00E+00">
+                  <c:v>9.4215977294902392E-6</c:v>
+                </c:pt>
+                <c:pt idx="368" formatCode="0.00E+00">
+                  <c:v>9.2846557987099392E-6</c:v>
+                </c:pt>
+                <c:pt idx="369" formatCode="0.00E+00">
+                  <c:v>9.2343165915809507E-6</c:v>
+                </c:pt>
+                <c:pt idx="370" formatCode="0.00E+00">
+                  <c:v>8.8444253048150903E-6</c:v>
+                </c:pt>
+                <c:pt idx="371" formatCode="0.00E+00">
+                  <c:v>8.4293818131038692E-6</c:v>
+                </c:pt>
+                <c:pt idx="372" formatCode="0.00E+00">
+                  <c:v>7.9264847591107806E-6</c:v>
+                </c:pt>
+                <c:pt idx="373" formatCode="0.00E+00">
+                  <c:v>7.6253681686903399E-6</c:v>
+                </c:pt>
+                <c:pt idx="374" formatCode="0.00E+00">
+                  <c:v>6.8761972672285996E-6</c:v>
+                </c:pt>
+                <c:pt idx="375" formatCode="0.00E+00">
+                  <c:v>6.7926375103226E-6</c:v>
+                </c:pt>
+                <c:pt idx="376" formatCode="0.00E+00">
+                  <c:v>6.4245179626613301E-6</c:v>
+                </c:pt>
+                <c:pt idx="377" formatCode="0.00E+00">
+                  <c:v>6.2041449626608804E-6</c:v>
+                </c:pt>
+                <c:pt idx="378" formatCode="0.00E+00">
+                  <c:v>6.0615138199123398E-6</c:v>
+                </c:pt>
+                <c:pt idx="379" formatCode="0.00E+00">
+                  <c:v>5.9280652552598603E-6</c:v>
+                </c:pt>
+                <c:pt idx="380" formatCode="0.00E+00">
+                  <c:v>5.6116093546076797E-6</c:v>
+                </c:pt>
+                <c:pt idx="381" formatCode="0.00E+00">
+                  <c:v>4.8572186934525204E-6</c:v>
+                </c:pt>
+                <c:pt idx="382" formatCode="0.00E+00">
+                  <c:v>3.01026428765495E-6</c:v>
+                </c:pt>
+                <c:pt idx="383" formatCode="0.00E+00">
+                  <c:v>2.6258808082144501E-6</c:v>
+                </c:pt>
+                <c:pt idx="384" formatCode="0.00E+00">
+                  <c:v>2.3059311407880601E-6</c:v>
+                </c:pt>
+                <c:pt idx="385" formatCode="0.00E+00">
+                  <c:v>2.0767304552247001E-6</c:v>
+                </c:pt>
+                <c:pt idx="386" formatCode="0.00E+00">
+                  <c:v>1.7875209234004101E-6</c:v>
+                </c:pt>
+                <c:pt idx="387" formatCode="0.00E+00">
+                  <c:v>1.04257628321788E-6</c:v>
+                </c:pt>
+                <c:pt idx="388" formatCode="0.00E+00">
+                  <c:v>2.1658874572532901E-7</c:v>
+                </c:pt>
+                <c:pt idx="389" formatCode="0.00E+00">
+                  <c:v>3.6718681990428201E-8</c:v>
+                </c:pt>
+                <c:pt idx="390" formatCode="0.00E+00">
+                  <c:v>1.5979895628452099E-11</c:v>
+                </c:pt>
+                <c:pt idx="391" formatCode="0.00E+00">
+                  <c:v>6.8082762655921296E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="159022464"/>
+        <c:axId val="159061120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="159022464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159061120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159061120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159022464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1554,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection sqref="A1:B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7068,6 +9576,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
